--- a/data/serie_peaje.xlsx
+++ b/data/serie_peaje.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="131">
   <si>
     <t>AGENTE</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Peaje generación USD/MWh 062025</t>
+  </si>
+  <si>
+    <t>Peaje generación USD/MWh 072025</t>
   </si>
   <si>
     <t>Aguai (Autoproductor)</t>
@@ -761,13 +764,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF88"/>
+  <dimension ref="A1:AG88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -864,13 +867,16 @@
       <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:33">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -962,13 +968,16 @@
       <c r="AF2">
         <v>0</v>
       </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:33">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1060,13 +1069,16 @@
       <c r="AF3">
         <v>0</v>
       </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:33">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C4">
         <v>8.369624999999999</v>
@@ -1158,13 +1170,16 @@
       <c r="AF4">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG4">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:33">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C5">
         <v>8.369624999999999</v>
@@ -1256,13 +1271,16 @@
       <c r="AF5">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG5">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:33">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C6">
         <v>8.369624999999999</v>
@@ -1354,13 +1372,16 @@
       <c r="AF6">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG6">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:33">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1452,13 +1473,16 @@
       <c r="AF7">
         <v>19.027</v>
       </c>
+      <c r="AG7">
+        <v>19.28525</v>
+      </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:33">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C8">
         <v>8.369624999999999</v>
@@ -1550,13 +1574,16 @@
       <c r="AF8">
         <v>0</v>
       </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:33">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C9">
         <v>8.369624999999999</v>
@@ -1648,13 +1675,16 @@
       <c r="AF9">
         <v>0</v>
       </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:33">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C10">
         <v>8.369624999999999</v>
@@ -1746,13 +1776,16 @@
       <c r="AF10">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG10">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:33">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1844,13 +1877,16 @@
       <c r="AF11">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG11">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:33">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C12">
         <v>8.369624999999999</v>
@@ -1942,13 +1978,16 @@
       <c r="AF12">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG12">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:33">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C13">
         <v>8.369624999999999</v>
@@ -2040,13 +2079,16 @@
       <c r="AF13">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG13">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:33">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C14">
         <v>8.369624999999999</v>
@@ -2138,13 +2180,16 @@
       <c r="AF14">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG14">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:33">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C15">
         <v>8.369624999999999</v>
@@ -2236,13 +2281,16 @@
       <c r="AF15">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG15">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:33">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C16">
         <v>8.369624999999999</v>
@@ -2334,13 +2382,16 @@
       <c r="AF16">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG16">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:33">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C17">
         <v>8.369624999999999</v>
@@ -2432,13 +2483,16 @@
       <c r="AF17">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG17">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:33">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2530,13 +2584,16 @@
       <c r="AF18">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG18">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:33">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C19">
         <v>8.369624999999999</v>
@@ -2628,13 +2685,16 @@
       <c r="AF19">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG19">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:33">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C20">
         <v>8.369624999999999</v>
@@ -2726,13 +2786,16 @@
       <c r="AF20">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG20">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:33">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C21">
         <v>8.369624999999999</v>
@@ -2824,13 +2887,16 @@
       <c r="AF21">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG21">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="22" spans="1:32">
+    <row r="22" spans="1:33">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C22">
         <v>8.369624999999999</v>
@@ -2922,13 +2988,16 @@
       <c r="AF22">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG22">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="1:33">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C23">
         <v>8.369624999999999</v>
@@ -3020,13 +3089,16 @@
       <c r="AF23">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG23">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:33">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C24">
         <v>8.369624999999999</v>
@@ -3118,13 +3190,16 @@
       <c r="AF24">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG24">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:33">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C25">
         <v>8.369624999999999</v>
@@ -3216,13 +3291,16 @@
       <c r="AF25">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG25">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:33">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -3314,13 +3392,16 @@
       <c r="AF26">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG26">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:33">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C27">
         <v>8.369624999999999</v>
@@ -3412,13 +3493,16 @@
       <c r="AF27">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG27">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:33">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -3510,13 +3594,16 @@
       <c r="AF28">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG28">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:33">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C29">
         <v>8.369624999999999</v>
@@ -3608,13 +3695,16 @@
       <c r="AF29">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG29">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:33">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C30">
         <v>8.369624999999999</v>
@@ -3706,13 +3796,16 @@
       <c r="AF30">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG30">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:33">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C31">
         <v>8.369624999999999</v>
@@ -3804,13 +3897,16 @@
       <c r="AF31">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG31">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="32" spans="1:32">
+    <row r="32" spans="1:33">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C32">
         <v>8.369624999999999</v>
@@ -3902,13 +3998,16 @@
       <c r="AF32">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG32">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="33" spans="1:32">
+    <row r="33" spans="1:33">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C33">
         <v>8.369624999999999</v>
@@ -4000,13 +4099,16 @@
       <c r="AF33">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG33">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="34" spans="1:32">
+    <row r="34" spans="1:33">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C34">
         <v>8.369624999999999</v>
@@ -4098,13 +4200,16 @@
       <c r="AF34">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG34">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="35" spans="1:32">
+    <row r="35" spans="1:33">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C35">
         <v>8.369624999999999</v>
@@ -4196,13 +4301,16 @@
       <c r="AF35">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG35">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="36" spans="1:32">
+    <row r="36" spans="1:33">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C36">
         <v>8.369624999999999</v>
@@ -4294,13 +4402,16 @@
       <c r="AF36">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG36">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="37" spans="1:32">
+    <row r="37" spans="1:33">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C37">
         <v>8.369624999999999</v>
@@ -4392,13 +4503,16 @@
       <c r="AF37">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG37">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="38" spans="1:32">
+    <row r="38" spans="1:33">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C38">
         <v>8.369624999999999</v>
@@ -4490,13 +4604,16 @@
       <c r="AF38">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:32">
+    <row r="39" spans="1:33">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C39">
         <v>8.369624999999999</v>
@@ -4588,13 +4705,16 @@
       <c r="AF39">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG39">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="40" spans="1:32">
+    <row r="40" spans="1:33">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C40">
         <v>8.369624999999999</v>
@@ -4686,13 +4806,16 @@
       <c r="AF40">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG40">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="41" spans="1:32">
+    <row r="41" spans="1:33">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C41">
         <v>8.369624999999999</v>
@@ -4784,13 +4907,16 @@
       <c r="AF41">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG41">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="42" spans="1:32">
+    <row r="42" spans="1:33">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C42">
         <v>8.369624999999999</v>
@@ -4882,13 +5008,16 @@
       <c r="AF42">
         <v>0</v>
       </c>
+      <c r="AG42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:32">
+    <row r="43" spans="1:33">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C43">
         <v>8.369624999999999</v>
@@ -4980,13 +5109,16 @@
       <c r="AF43">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG43">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="44" spans="1:32">
+    <row r="44" spans="1:33">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B44" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -5078,13 +5210,16 @@
       <c r="AF44">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG44">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="45" spans="1:32">
+    <row r="45" spans="1:33">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C45">
         <v>8.369624999999999</v>
@@ -5176,13 +5311,16 @@
       <c r="AF45">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG45">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="46" spans="1:32">
+    <row r="46" spans="1:33">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C46">
         <v>8.369624999999999</v>
@@ -5274,13 +5412,16 @@
       <c r="AF46">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG46">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="47" spans="1:32">
+    <row r="47" spans="1:33">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B47" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -5372,13 +5513,16 @@
       <c r="AF47">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG47">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="48" spans="1:32">
+    <row r="48" spans="1:33">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B48" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C48">
         <v>8.369624999999999</v>
@@ -5470,13 +5614,16 @@
       <c r="AF48">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG48">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="49" spans="1:32">
+    <row r="49" spans="1:33">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B49" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C49">
         <v>8.369624999999999</v>
@@ -5568,13 +5715,16 @@
       <c r="AF49">
         <v>0</v>
       </c>
+      <c r="AG49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:32">
+    <row r="50" spans="1:33">
       <c r="A50" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C50">
         <v>8.369624999999999</v>
@@ -5666,13 +5816,16 @@
       <c r="AF50">
         <v>0</v>
       </c>
+      <c r="AG50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:32">
+    <row r="51" spans="1:33">
       <c r="A51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B51" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -5764,13 +5917,16 @@
       <c r="AF51">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG51">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="52" spans="1:32">
+    <row r="52" spans="1:33">
       <c r="A52" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B52" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -5862,13 +6018,16 @@
       <c r="AF52">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG52">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="53" spans="1:32">
+    <row r="53" spans="1:33">
       <c r="A53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C53">
         <v>8.369624999999999</v>
@@ -5960,13 +6119,16 @@
       <c r="AF53">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG53">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="54" spans="1:32">
+    <row r="54" spans="1:33">
       <c r="A54" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C54">
         <v>8.369624999999999</v>
@@ -6058,13 +6220,16 @@
       <c r="AF54">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG54">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="55" spans="1:32">
+    <row r="55" spans="1:33">
       <c r="A55" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B55" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C55">
         <v>8.369624999999999</v>
@@ -6156,13 +6321,16 @@
       <c r="AF55">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG55">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="56" spans="1:32">
+    <row r="56" spans="1:33">
       <c r="A56" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B56" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C56">
         <v>8.369624999999999</v>
@@ -6254,13 +6422,16 @@
       <c r="AF56">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG56">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="57" spans="1:32">
+    <row r="57" spans="1:33">
       <c r="A57" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B57" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C57">
         <v>16.73925</v>
@@ -6352,13 +6523,16 @@
       <c r="AF57">
         <v>19.027</v>
       </c>
+      <c r="AG57">
+        <v>19.28525</v>
+      </c>
     </row>
-    <row r="58" spans="1:32">
+    <row r="58" spans="1:33">
       <c r="A58" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B58" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C58">
         <v>8.369624999999999</v>
@@ -6450,13 +6624,16 @@
       <c r="AF58">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG58">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="59" spans="1:32">
+    <row r="59" spans="1:33">
       <c r="A59" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B59" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C59">
         <v>8.369624999999999</v>
@@ -6548,13 +6725,16 @@
       <c r="AF59">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG59">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="60" spans="1:32">
+    <row r="60" spans="1:33">
       <c r="A60" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B60" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C60">
         <v>8.369624999999999</v>
@@ -6646,13 +6826,16 @@
       <c r="AF60">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG60">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="61" spans="1:32">
+    <row r="61" spans="1:33">
       <c r="A61" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B61" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C61">
         <v>8.369624999999999</v>
@@ -6744,13 +6927,16 @@
       <c r="AF61">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG61">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="62" spans="1:32">
+    <row r="62" spans="1:33">
       <c r="A62" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B62" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C62">
         <v>8.369624999999999</v>
@@ -6842,13 +7028,16 @@
       <c r="AF62">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG62">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="63" spans="1:32">
+    <row r="63" spans="1:33">
       <c r="A63" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B63" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C63">
         <v>8.369624999999999</v>
@@ -6940,13 +7129,16 @@
       <c r="AF63">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG63">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="64" spans="1:32">
+    <row r="64" spans="1:33">
       <c r="A64" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B64" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C64">
         <v>8.369624999999999</v>
@@ -7038,13 +7230,16 @@
       <c r="AF64">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG64">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="65" spans="1:32">
+    <row r="65" spans="1:33">
       <c r="A65" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B65" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C65">
         <v>8.369624999999999</v>
@@ -7136,13 +7331,16 @@
       <c r="AF65">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG65">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="66" spans="1:32">
+    <row r="66" spans="1:33">
       <c r="A66" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B66" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C66">
         <v>8.369624999999999</v>
@@ -7234,13 +7432,16 @@
       <c r="AF66">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG66">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="67" spans="1:32">
+    <row r="67" spans="1:33">
       <c r="A67" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B67" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C67">
         <v>8.369624999999999</v>
@@ -7332,13 +7533,16 @@
       <c r="AF67">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG67">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="68" spans="1:32">
+    <row r="68" spans="1:33">
       <c r="A68" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B68" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C68">
         <v>8.369624999999999</v>
@@ -7430,13 +7634,16 @@
       <c r="AF68">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG68">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="69" spans="1:32">
+    <row r="69" spans="1:33">
       <c r="A69" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B69" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C69">
         <v>8.369624999999999</v>
@@ -7528,13 +7735,16 @@
       <c r="AF69">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG69">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="70" spans="1:32">
+    <row r="70" spans="1:33">
       <c r="A70" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B70" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -7626,13 +7836,16 @@
       <c r="AF70">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG70">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="71" spans="1:32">
+    <row r="71" spans="1:33">
       <c r="A71" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B71" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -7724,13 +7937,16 @@
       <c r="AF71">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG71">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="72" spans="1:32">
+    <row r="72" spans="1:33">
       <c r="A72" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B72" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C72">
         <v>8.369624999999999</v>
@@ -7822,13 +8038,16 @@
       <c r="AF72">
         <v>0</v>
       </c>
+      <c r="AG72">
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:32">
+    <row r="73" spans="1:33">
       <c r="A73" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B73" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C73">
         <v>8.369624999999999</v>
@@ -7920,13 +8139,16 @@
       <c r="AF73">
         <v>0</v>
       </c>
+      <c r="AG73">
+        <v>0</v>
+      </c>
     </row>
-    <row r="74" spans="1:32">
+    <row r="74" spans="1:33">
       <c r="A74" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B74" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C74">
         <v>8.369624999999999</v>
@@ -8018,13 +8240,16 @@
       <c r="AF74">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG74">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="75" spans="1:32">
+    <row r="75" spans="1:33">
       <c r="A75" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B75" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C75">
         <v>8.369624999999999</v>
@@ -8116,13 +8341,16 @@
       <c r="AF75">
         <v>0</v>
       </c>
+      <c r="AG75">
+        <v>0</v>
+      </c>
     </row>
-    <row r="76" spans="1:32">
+    <row r="76" spans="1:33">
       <c r="A76" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B76" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -8214,13 +8442,16 @@
       <c r="AF76">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG76">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="77" spans="1:32">
+    <row r="77" spans="1:33">
       <c r="A77" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B77" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -8312,13 +8543,16 @@
       <c r="AF77">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG77">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="78" spans="1:32">
+    <row r="78" spans="1:33">
       <c r="A78" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B78" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C78">
         <v>8.369624999999999</v>
@@ -8410,13 +8644,16 @@
       <c r="AF78">
         <v>0</v>
       </c>
+      <c r="AG78">
+        <v>0</v>
+      </c>
     </row>
-    <row r="79" spans="1:32">
+    <row r="79" spans="1:33">
       <c r="A79" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B79" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C79">
         <v>8.369624999999999</v>
@@ -8508,13 +8745,16 @@
       <c r="AF79">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG79">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="80" spans="1:32">
+    <row r="80" spans="1:33">
       <c r="A80" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B80" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C80">
         <v>8.369624999999999</v>
@@ -8606,13 +8846,16 @@
       <c r="AF80">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG80">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="81" spans="1:32">
+    <row r="81" spans="1:33">
       <c r="A81" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B81" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C81">
         <v>8.369624999999999</v>
@@ -8704,13 +8947,16 @@
       <c r="AF81">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG81">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="82" spans="1:32">
+    <row r="82" spans="1:33">
       <c r="A82" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B82" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C82">
         <v>8.369624999999999</v>
@@ -8802,13 +9048,16 @@
       <c r="AF82">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG82">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="83" spans="1:32">
+    <row r="83" spans="1:33">
       <c r="A83" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B83" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C83">
         <v>8.369624999999999</v>
@@ -8900,13 +9149,16 @@
       <c r="AF83">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG83">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="84" spans="1:32">
+    <row r="84" spans="1:33">
       <c r="A84" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B84" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C84">
         <v>8.369624999999999</v>
@@ -8998,13 +9250,16 @@
       <c r="AF84">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG84">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="85" spans="1:32">
+    <row r="85" spans="1:33">
       <c r="A85" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B85" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C85">
         <v>8.369624999999999</v>
@@ -9096,13 +9351,16 @@
       <c r="AF85">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG85">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="86" spans="1:32">
+    <row r="86" spans="1:33">
       <c r="A86" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B86" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C86">
         <v>8.369624999999999</v>
@@ -9194,13 +9452,16 @@
       <c r="AF86">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG86">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="87" spans="1:32">
+    <row r="87" spans="1:33">
       <c r="A87" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B87" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C87">
         <v>8.369624999999999</v>
@@ -9292,13 +9553,16 @@
       <c r="AF87">
         <v>9.513500000000001</v>
       </c>
+      <c r="AG87">
+        <v>9.642624999999999</v>
+      </c>
     </row>
-    <row r="88" spans="1:32">
+    <row r="88" spans="1:33">
       <c r="A88" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B88" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C88">
         <v>8.369624999999999</v>
@@ -9389,6 +9653,9 @@
       </c>
       <c r="AF88">
         <v>9.513500000000001</v>
+      </c>
+      <c r="AG88">
+        <v>9.642624999999999</v>
       </c>
     </row>
   </sheetData>
